--- a/Test/Lawnmower/T2/Sensors_data_1000050.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000050.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.969326025390818</v>
+        <v>0.6373553828499544</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001347708657923869</v>
+        <v>0.01938783607876854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3013269292474387</v>
+        <v>0.05954608232698644</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9968832076248778</v>
+        <v>0.9967051569326081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001358659508835742</v>
+        <v>0.0001999050460322441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1578301913058457</v>
+        <v>0.03380368390658223</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,18 +525,93 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9412322863373666</v>
+        <v>0.7391256917627447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002421549421748064</v>
+        <v>0.009229345566961028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3124108297404097</v>
+        <v>0.08156404459239686</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8383803562288052</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.005939756083282</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.17230327079984</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9209260461420952</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00248255801182864</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1086977542314386</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9608763447411449</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001704364999774999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1161193471581776</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
